--- a/02_MasterWifoMannheim/99_Backup/Course154.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course154.xlsx
@@ -1,130 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD300D369A3B923115934883265B7F8A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2ABDF6E1-DAE1-4038-9811-000C6F250A07}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>OPM 503 Transportation I – Land Transport and Shipping</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>This lecture gives an overview about market developments in road and rail transport, inland and maritime shipping. technologies. General business developments in the shipping, trucking, and railway industries are discussed as well as individual strategies of companies active in these transportation sectors. important framework for the business activities of transportation companies. for an optimization of the use of the existing traffic infrastructure are discussed. Attention is not only given to the developments in Germany, but also to the developments in Europe and other world regions.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Students will understand the dynamics and interdependencies of the markets for land transport, maritime shipping, and inland navigation. The students will also understand the role of transport for the globalization of the world’s economy and for the supply chain management.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registrationFurther Information on registration</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 6</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (45 min.)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Borislav Bjelicic</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -139,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -463,134 +420,197 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>OPM 503 Transportation I – Land Transport and Shipping</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>This lecture gives an overview about market developments in road and rail transport, inland and maritime shipping. technologies. General business developments in the shipping, trucking, and railway industries are discussed as well as individual strategies of companies active in these transportation sectors. important framework for the business activities of transportation companies. for an optimization of the use of the existing traffic infrastructure are discussed. Attention is not only given to the developments in Germany, but also to the developments in Europe and other world regions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Students will understand the dynamics and interdependencies of the markets for land transport, maritime shipping, and inland navigation. The students will also understand the role of transport for the globalization of the world’s economy and for the supply chain management.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registrationFurther Information on registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam (45 min.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Borislav Bjelicic</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
